--- a/BilanSujets_XP.xlsx
+++ b/BilanSujets_XP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>CCP</t>
   </si>
@@ -67,6 +67,42 @@
   </si>
   <si>
     <t>Mot clef</t>
+  </si>
+  <si>
+    <t>Mines Ponts</t>
+  </si>
+  <si>
+    <t>Cycle 1</t>
+  </si>
+  <si>
+    <t>Colle</t>
+  </si>
+  <si>
+    <t>MC2E</t>
+  </si>
+  <si>
+    <t>NON</t>
+  </si>
+  <si>
+    <t>Ordre2</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Robot palettiseur  kuka</t>
+  </si>
+  <si>
+    <t>E3A</t>
+  </si>
+  <si>
+    <t>Moto trial électrique</t>
+  </si>
+  <si>
+    <t>Ordre 2</t>
+  </si>
+  <si>
+    <t>Ordre 1 (+marge)</t>
   </si>
 </sst>
 </file>
@@ -384,13 +420,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -459,6 +498,84 @@
       </c>
       <c r="F3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2016</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2010</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2016</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/BilanSujets_XP.xlsx
+++ b/BilanSujets_XP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>CCP</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>Ordre 1 (+marge)</t>
+  </si>
+  <si>
+    <t>Centrale Supelec</t>
+  </si>
+  <si>
+    <t>TSI</t>
+  </si>
+  <si>
+    <t>Fauteuil dynamique de cinéma</t>
+  </si>
+  <si>
+    <t>Précision</t>
   </si>
 </sst>
 </file>
@@ -420,14 +432,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -578,6 +593,32 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BilanSujets_XP.xlsx
+++ b/BilanSujets_XP.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6240A6B1-DC46-4F9A-ABC3-C2CBF5891502}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>CCP</t>
   </si>
@@ -115,12 +116,27 @@
   </si>
   <si>
     <t>Précision</t>
+  </si>
+  <si>
+    <t>Tour en fosse utilisé pour le reprofilage des roues</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Stabilisateur d'images mécaniques</t>
+  </si>
+  <si>
+    <t>Corrigé SLCI Tex</t>
+  </si>
+  <si>
+    <t>OUI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,22 +447,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" customWidth="1"/>
+    <col min="4" max="4" width="25.90625" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -472,7 +489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -495,7 +512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2010</v>
       </c>
@@ -515,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -541,7 +558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -567,7 +584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -593,7 +610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -617,6 +634,81 @@
       </c>
       <c r="H7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
